--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,26 +742,77 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="12">
+        <v>43948</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>67802</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>602</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>2702.98</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>3288.61</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3288.61</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>28615</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="5"/>
+        <v>585.63</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G12" s="11">
         <f>SUM(G2:G9)</f>
         <v>10639.17</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H12" s="11">
         <f>SUM(H2:H9)</f>
         <v>10639.17</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -794,25 +794,76 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="12">
+        <v>43978</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>68323</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
+        <v>521</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>2339.29</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>2847.16</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2847.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>28824</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="7"/>
+        <v>507.87000000000006</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <f>SUM(G2:G9)</f>
         <v>10639.17</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <f>SUM(H2:H9)</f>
         <v>10639.17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,26 +845,77 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="12">
+        <v>44008</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>68691</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
+        <v>368</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>1652.3200000000002</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>1965.7900000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1953.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>28953</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="8"/>
+        <v>129</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="9"/>
+        <v>313.47000000000003</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>10639.17</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>10639.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="11">
+        <f>SUM(G2:G15)</f>
+        <v>18740.730000000003</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H2:H15)</f>
+        <v>18728.580000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>0</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
+        <v>-12.150000000001455</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,25 +896,76 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="12">
+        <v>44041</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>69078</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
+        <v>387</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>1822.77</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>2167.02</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2167.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>29088</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="11"/>
+        <v>344.25</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
-        <f>SUM(G2:G15)</f>
-        <v>18740.730000000003</v>
-      </c>
-      <c r="H16" s="11">
-        <f>SUM(H2:H15)</f>
-        <v>18728.580000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>20907.750000000004</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>20895.600000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
         <v>-12.150000000001455</v>
       </c>
     </row>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -947,26 +947,77 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="12">
+        <v>44069</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>69443</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
+        <v>365</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>1719.15</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>2020.0500000000002</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2019.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>29206</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="13"/>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>20907.750000000004</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>20895.600000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>22927.800000000003</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>22914.840000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
-        <v>-12.150000000001455</v>
+      <c r="G21" s="2"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
+        <v>-12.959999999999127</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -998,25 +998,76 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="12">
+        <v>44104</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>69824</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" ref="D20:D21" si="14">C20-C18</f>
+        <v>381</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>1794.51</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>2115.81</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2115.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>29332</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="14"/>
+        <v>126</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="15"/>
+        <v>321.29999999999995</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>22927.800000000003</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>22914.840000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>25043.610000000004</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>25030.650000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
         <v>-12.959999999999127</v>
       </c>
     </row>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1049,25 +1049,76 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="12">
+        <v>44130</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>70190</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" ref="D22:D23" si="16">C22-C20</f>
+        <v>366</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>1723.86</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>2009.4599999999998</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2009.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>29444</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="17"/>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11">
-        <f>SUM(G2:G21)</f>
-        <v>25043.610000000004</v>
-      </c>
-      <c r="H22" s="11">
-        <f>SUM(H2:H21)</f>
-        <v>25030.650000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="11">
+        <f>SUM(G2:G23)</f>
+        <v>27053.070000000003</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H2:H23)</f>
+        <v>27040.110000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="2"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>-12.959999999999127</v>
       </c>
     </row>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +79,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -154,43 +146,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,608 +503,395 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43824</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>43978</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>65238</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="8">
+        <v>68323</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>27621</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="8">
+        <v>28824</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43853</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44008</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
-        <v>65766</v>
-      </c>
-      <c r="D4" s="13">
-        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
-        <v>528</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="C4" s="8">
+        <v>68691</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>368</v>
+      </c>
+      <c r="E4" s="9">
         <v>4.49</v>
       </c>
-      <c r="F4" s="10">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
-        <v>2370.7200000000003</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1652.3200000000002</v>
+      </c>
+      <c r="G4" s="6">
         <f>SUM(F4,F5)</f>
-        <v>2939.34</v>
+        <v>1965.7900000000002</v>
       </c>
       <c r="H4" s="2">
-        <v>2939.34</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+        <v>1953.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
-        <v>27855</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="8">
+        <v>28953</v>
+      </c>
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="E5" s="15">
+        <v>129</v>
+      </c>
+      <c r="E5" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>568.62</v>
+        <v>313.47000000000003</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>43888</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44041</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13">
-        <v>66575</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>809</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="1"/>
-        <v>3632.4100000000003</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="C6" s="8">
+        <v>69078</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>387</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>1822.77</v>
+      </c>
+      <c r="G6" s="6">
         <f>SUM(F6,F7)</f>
-        <v>4341.97</v>
+        <v>2167.02</v>
       </c>
       <c r="H6" s="2">
-        <v>4341.97</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+        <v>2167.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
-        <v>28147</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>709.56000000000006</v>
+      <c r="C7" s="8">
+        <v>29088</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>344.25</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43916</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44069</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13">
-        <v>67200</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
-        <v>625</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>2806.25</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="C8" s="8">
+        <v>69443</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>365</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>1719.15</v>
+      </c>
+      <c r="G8" s="6">
         <f>SUM(F8,F9)</f>
-        <v>3357.86</v>
+        <v>2020.0500000000002</v>
       </c>
       <c r="H8" s="2">
-        <v>3357.86</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+        <v>2019.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
-        <v>28374</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="3"/>
-        <v>551.61</v>
+      <c r="C9" s="8">
+        <v>29206</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="5"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43948</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44104</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="13">
-        <v>67802</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
-        <v>602</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>2702.98</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="C10" s="8">
+        <v>69824</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>381</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>1794.51</v>
+      </c>
+      <c r="G10" s="6">
         <f>SUM(F10,F11)</f>
-        <v>3288.61</v>
+        <v>2115.81</v>
       </c>
       <c r="H10" s="2">
-        <v>3288.61</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+        <v>2115.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13">
-        <v>28615</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="4"/>
-        <v>241</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="5"/>
-        <v>585.63</v>
+      <c r="C11" s="8">
+        <v>29332</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="7"/>
+        <v>321.29999999999995</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>43978</v>
-      </c>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44130</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="13">
-        <v>68323</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
-        <v>521</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>2339.29</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="C12" s="8">
+        <v>70190</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>366</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>1723.86</v>
+      </c>
+      <c r="G12" s="6">
         <f>SUM(F12,F13)</f>
-        <v>2847.16</v>
+        <v>2009.4599999999998</v>
       </c>
       <c r="H12" s="2">
-        <v>2847.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+        <v>2009.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="13">
-        <v>28824</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="6"/>
-        <v>209</v>
-      </c>
-      <c r="E13" s="15">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="7"/>
-        <v>507.87000000000006</v>
+      <c r="C13" s="8">
+        <v>29444</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="9"/>
+        <v>285.59999999999997</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>44008</v>
-      </c>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44165</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="13">
-        <v>68691</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
-        <v>368</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>1652.3200000000002</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="C14" s="8">
+        <v>70808</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>618</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>2910.78</v>
+      </c>
+      <c r="G14" s="6">
         <f>SUM(F14,F15)</f>
-        <v>1965.7900000000002</v>
+        <v>3645.1800000000003</v>
       </c>
       <c r="H14" s="2">
-        <v>1953.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+        <v>3645.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="13">
-        <v>28953</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="8"/>
-        <v>129</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="9"/>
-        <v>313.47000000000003</v>
+      <c r="C15" s="8">
+        <v>29732</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="10"/>
+        <v>288</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="11"/>
+        <v>734.4</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>44041</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>69078</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
-        <v>387</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
-        <v>1822.77</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>2167.02</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2167.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
-        <v>29088</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="10"/>
-        <v>135</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="11"/>
-        <v>344.25</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(G2:G15)</f>
+        <v>13923.31</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUM(H2:H15)</f>
+        <v>13910.349999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>44069</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
-        <v>69443</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
-        <v>365</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
-        <v>1719.15</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>2020.0500000000002</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2019.24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
-        <v>29206</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="13"/>
-        <v>300.89999999999998</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>44104</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <v>69824</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" ref="D20:D21" si="14">C20-C18</f>
-        <v>381</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
-        <v>1794.51</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>2115.81</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2115.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
-        <v>29332</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="14"/>
-        <v>126</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="15"/>
-        <v>321.29999999999995</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>44130</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
-        <v>70190</v>
-      </c>
-      <c r="D22" s="13">
-        <f t="shared" ref="D22:D23" si="16">C22-C20</f>
-        <v>366</v>
-      </c>
-      <c r="E22" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
-        <v>1723.86</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(F22,F23)</f>
-        <v>2009.4599999999998</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2009.46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="13">
-        <v>29444</v>
-      </c>
-      <c r="D23" s="13">
-        <f t="shared" si="16"/>
-        <v>112</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="17"/>
-        <v>285.59999999999997</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11">
-        <f>SUM(G2:G23)</f>
-        <v>27053.070000000003</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H23)</f>
-        <v>27040.110000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>-12.959999999999127</v>
+      <c r="H17" s="6">
+        <f>SUM(H16,-G16)</f>
+        <v>-12.960000000000946</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -866,25 +866,76 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="7">
+        <v>44196</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>71872</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>1064</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>5011.4399999999996</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(F16,F17)</f>
+        <v>6416.49</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6416.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>30283</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="12"/>
+        <v>551</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="13"/>
+        <v>1405.05</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G18" s="6">
         <f>SUM(G2:G15)</f>
         <v>13923.31</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H18" s="6">
         <f>SUM(H2:H15)</f>
         <v>13910.349999999999</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="6">
+        <f>SUM(H18,-G18)</f>
         <v>-12.960000000000946</v>
       </c>
     </row>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -917,26 +917,230 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="7">
+        <v>44230</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>73155</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
+        <v>1283</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>6042.93</v>
+      </c>
+      <c r="G18" s="6">
+        <f>SUM(F18,F19)</f>
+        <v>7646.88</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7949.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>30912</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="14"/>
+        <v>629</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="15"/>
+        <v>1603.9499999999998</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44257</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>74724</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
+        <v>1569</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>7389.99</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(F20,F21)</f>
+        <v>9292.2899999999991</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9292.2900000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>31658</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="16"/>
+        <v>746</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="17"/>
+        <v>1902.3</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44279</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>75244</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
+        <v>520</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>2449.1999999999998</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(F22,F23)</f>
+        <v>3262.6499999999996</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3262.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>31977</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="18"/>
+        <v>319</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="19"/>
+        <v>813.44999999999993</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>44312</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>75244</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:D25" si="20">C24-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f>SUM(F24,F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2890.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>31977</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="6">
-        <f>SUM(G2:G15)</f>
-        <v>13923.31</v>
-      </c>
-      <c r="H18" s="6">
-        <f>SUM(H2:H15)</f>
-        <v>13910.349999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G26" s="6">
+        <f>SUM(G2:G23)</f>
+        <v>40541.620000000003</v>
+      </c>
+      <c r="H26" s="6">
+        <f>SUM(H2:H23)</f>
+        <v>40831.659999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="6">
-        <f>SUM(H18,-G18)</f>
-        <v>-12.960000000000946</v>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6">
+        <f>SUM(H26,-G26)</f>
+        <v>290.0399999999936</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1121,25 +1121,76 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="7">
+        <v>44344</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>75244</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" ref="D26:D27" si="22">C26-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f>SUM(F26,F27)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2497.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>31977</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G28" s="6">
         <f>SUM(G2:G23)</f>
         <v>40541.620000000003</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H28" s="6">
         <f>SUM(H2:H23)</f>
         <v>40831.659999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="6">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6">
+        <f>SUM(H28,-G28)</f>
         <v>290.0399999999936</v>
       </c>
     </row>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -98,12 +92,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -175,6 +175,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,8 +486,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1096,7 @@
         <f>SUM(F24,F25)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="12">
         <v>2890.08</v>
       </c>
     </row>
@@ -1118,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
@@ -1145,7 +1147,7 @@
         <f>SUM(F26,F27)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="12">
         <v>2497.5</v>
       </c>
     </row>
@@ -1169,30 +1171,58 @@
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="6">
-        <f>SUM(G2:G23)</f>
-        <v>40541.620000000003</v>
-      </c>
-      <c r="H28" s="6">
-        <f>SUM(H2:H23)</f>
-        <v>40831.659999999996</v>
+      <c r="A28" s="7">
+        <v>44379</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>76480</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" ref="D28:D29" si="24">C28-C26</f>
+        <v>1236</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="25">D28*E28</f>
+        <v>5821.56</v>
+      </c>
+      <c r="G28" s="13">
+        <f>SUM(F28,F29)</f>
+        <v>7356.66</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1968.99</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
-        <v>11</v>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>32579</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="24"/>
+        <v>602</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="25"/>
+        <v>1535.1</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="6">
-        <f>SUM(H28,-G28)</f>
-        <v>290.0399999999936</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -484,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1079,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="C24" s="8">
-        <v>75244</v>
+        <v>75732</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" ref="D24:D25" si="20">C24-C22</f>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="E24" s="9">
         <v>4.71</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ref="F24:F25" si="21">D24*E24</f>
-        <v>0</v>
+        <v>2298.48</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>0</v>
+        <v>2890.08</v>
       </c>
       <c r="H24" s="12">
         <v>2890.08</v>
@@ -1106,18 +1106,18 @@
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <v>31977</v>
+        <v>32209</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E25" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>591.59999999999991</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="12"/>
@@ -1130,22 +1130,22 @@
         <v>0</v>
       </c>
       <c r="C26" s="8">
-        <v>75244</v>
+        <v>76141</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" ref="D26:D27" si="22">C26-C24</f>
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="E26" s="9">
         <v>4.71</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ref="F26:F27" si="23">D26*E26</f>
-        <v>0</v>
+        <v>1926.3899999999999</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>0</v>
+        <v>2497.5899999999997</v>
       </c>
       <c r="H26" s="12">
         <v>2497.5</v>
@@ -1157,18 +1157,18 @@
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <v>31977</v>
+        <v>32433</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="E27" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>571.19999999999993</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="12"/>
@@ -1185,18 +1185,18 @@
       </c>
       <c r="D28" s="8">
         <f t="shared" ref="D28:D29" si="24">C28-C26</f>
-        <v>1236</v>
+        <v>339</v>
       </c>
       <c r="E28" s="9">
         <v>4.71</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ref="F28:F29" si="25">D28*E28</f>
-        <v>5821.56</v>
+        <v>1596.69</v>
       </c>
       <c r="G28" s="13">
         <f>SUM(F28,F29)</f>
-        <v>7356.66</v>
+        <v>1968.99</v>
       </c>
       <c r="H28" s="12">
         <v>1968.99</v>
@@ -1212,17 +1212,68 @@
       </c>
       <c r="D29" s="8">
         <f t="shared" si="24"/>
-        <v>602</v>
+        <v>146</v>
       </c>
       <c r="E29" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="25"/>
-        <v>1535.1</v>
+        <v>372.29999999999995</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>44418</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>76853</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" ref="D30:D31" si="26">C30-C28</f>
+        <v>373</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:F31" si="27">D30*E30</f>
+        <v>1850.08</v>
+      </c>
+      <c r="G30" s="13">
+        <f>SUM(F30,F31)</f>
+        <v>2209.1999999999998</v>
+      </c>
+      <c r="H30" s="12">
+        <v>2209.1999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>32713</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="26"/>
+        <v>134</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="27"/>
+        <v>359.12</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -92,7 +92,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -183,6 +189,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,31 +550,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44468</v>
+        <v>44497</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>77463</v>
+        <v>78052</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F5" si="1">D2*E2</f>
-        <v>3025.6</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>2921.44</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>3749.2</v>
+        <v>3725.44</v>
       </c>
       <c r="H2" s="11">
-        <v>3749.2</v>
+        <v>3725.44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,49 +583,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>32983</v>
+        <v>33283</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>723.6</v>
+        <v>804</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>44418</v>
+      <c r="A4" s="14">
+        <v>44468</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>76853</v>
+        <v>77463</v>
       </c>
       <c r="D4" s="7">
-        <f>C4-C6</f>
-        <v>373</v>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
+        <v>610</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>1850.08</v>
+        <f t="shared" ref="F4:F7" si="3">D4*E4</f>
+        <v>3025.6</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>2209.1999999999998</v>
+        <v>3749.2</v>
       </c>
       <c r="H4" s="11">
-        <v>2209.1999999999998</v>
+        <v>3749.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,37 +634,50 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>32713</v>
+        <v>32983</v>
       </c>
       <c r="D5" s="7">
-        <f>C5-C7</f>
-        <v>134</v>
+        <f t="shared" si="2"/>
+        <v>270</v>
       </c>
       <c r="E5" s="9">
         <v>2.68</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>359.12</v>
+        <f t="shared" si="3"/>
+        <v>723.6</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44379</v>
+        <v>44418</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>76480</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
+        <v>76853</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6-C8</f>
+        <v>373</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>1850.08</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>2209.1999999999998</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2209.1999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -663,13 +685,51 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>32579</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="5"/>
+        <v>32713</v>
+      </c>
+      <c r="D7" s="7">
+        <f>C7-C9</f>
+        <v>134</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>359.12</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>44379</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>76480</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>32579</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/47ee.xlsx
+++ b/sputnik/personal/ee/47ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,31 +550,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44497</v>
+        <v>44529</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>78052</v>
+        <v>78860</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>589</v>
+        <v>808</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2921.44</v>
+        <v>4007.68</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>3725.44</v>
+        <v>5063.6000000000004</v>
       </c>
       <c r="H2" s="11">
-        <v>3725.44</v>
+        <v>5063.6000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,49 +583,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>33283</v>
+        <v>33677</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>804</v>
+        <v>1055.92</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44468</v>
+        <v>44497</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>77463</v>
+        <v>78052</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F7" si="3">D4*E4</f>
-        <v>3025.6</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>2921.44</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>3749.2</v>
+        <v>3725.44</v>
       </c>
       <c r="H4" s="11">
-        <v>3749.2</v>
+        <v>3725.44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,49 +634,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>32983</v>
+        <v>33283</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E5" s="9">
         <v>2.68</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="3"/>
-        <v>723.6</v>
+        <v>804</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>44418</v>
+      <c r="A6" s="14">
+        <v>44468</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>76853</v>
+        <v>77463</v>
       </c>
       <c r="D6" s="7">
-        <f>C6-C8</f>
-        <v>373</v>
+        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
+        <v>610</v>
       </c>
       <c r="E6" s="8">
         <v>4.96</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="3"/>
-        <v>1850.08</v>
+        <f t="shared" ref="F6:F9" si="5">D6*E6</f>
+        <v>3025.6</v>
       </c>
       <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
-        <v>2209.1999999999998</v>
+        <v>3749.2</v>
       </c>
       <c r="H6" s="11">
-        <v>2209.1999999999998</v>
+        <v>3749.2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,37 +685,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>32713</v>
+        <v>32983</v>
       </c>
       <c r="D7" s="7">
-        <f>C7-C9</f>
-        <v>134</v>
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
       <c r="E7" s="9">
         <v>2.68</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="3"/>
-        <v>359.12</v>
+        <f t="shared" si="5"/>
+        <v>723.6</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44379</v>
+        <v>44418</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="7">
-        <v>76480</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+        <v>76853</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8-C10</f>
+        <v>373</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="5"/>
+        <v>1850.08</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>2209.1999999999998</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2209.1999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -723,13 +736,51 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>32579</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
+        <v>32713</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9-C11</f>
+        <v>134</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="5"/>
+        <v>359.12</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44379</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>76480</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>32579</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
